--- a/PicksPool/Picks/Leaders_Board.xlsx
+++ b/PicksPool/Picks/Leaders_Board.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slawler\Desktop\NFLPICKS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sml\Desktop\NFLPICKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>TOTAL</t>
   </si>
@@ -167,7 +167,7 @@
       <sz val="12"/>
       <color theme="4"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -255,32 +255,35 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -568,7 +571,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,58 +611,58 @@
     </row>
     <row r="2" spans="1:23" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="20" t="s">
         <v>18</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="T2" s="7" t="s">
@@ -671,26 +674,26 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="10"/>
       <c r="U3" s="13"/>
       <c r="V3" s="2"/>
@@ -713,7 +716,7 @@
       <c r="F4" s="14">
         <v>9</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>9</v>
       </c>
       <c r="H4" s="14">
@@ -774,7 +777,7 @@
       <c r="F5" s="14">
         <v>11</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>12</v>
       </c>
       <c r="H5" s="14">
@@ -835,7 +838,7 @@
       <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>11</v>
       </c>
       <c r="H6" s="14">
@@ -896,7 +899,7 @@
       <c r="F7" s="14">
         <v>10</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>11</v>
       </c>
       <c r="H7" s="14">
@@ -957,7 +960,7 @@
       <c r="F8" s="14">
         <v>5</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="16">
         <v>8</v>
       </c>
       <c r="H8" s="14" t="s">
@@ -1018,7 +1021,7 @@
       <c r="F9" s="8">
         <v>5</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>7</v>
       </c>
       <c r="H9" s="8">
@@ -1079,7 +1082,7 @@
       <c r="F10" s="8">
         <v>7</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>9</v>
       </c>
       <c r="H10" s="8">
@@ -1140,7 +1143,7 @@
       <c r="F11" s="8">
         <v>7</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <v>8</v>
       </c>
       <c r="H11" s="8">
@@ -1189,55 +1192,55 @@
       <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="15">
-        <v>8</v>
-      </c>
-      <c r="D12" s="15">
-        <v>9</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="C12" s="8">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="8">
         <v>6</v>
       </c>
-      <c r="G12" s="22">
-        <v>9</v>
-      </c>
-      <c r="H12" s="15">
-        <v>8</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="15">
-        <v>7</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="G12" s="17">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8">
+        <v>7</v>
+      </c>
+      <c r="K12" s="8">
         <v>10</v>
       </c>
-      <c r="L12" s="15">
-        <v>8</v>
-      </c>
-      <c r="M12" s="15">
+      <c r="L12" s="8">
+        <v>8</v>
+      </c>
+      <c r="M12" s="8">
         <v>5</v>
       </c>
-      <c r="N12" s="15">
-        <v>9</v>
-      </c>
-      <c r="O12" s="15">
-        <v>7</v>
-      </c>
-      <c r="P12" s="15">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="24">
+      <c r="N12" s="8">
+        <v>9</v>
+      </c>
+      <c r="O12" s="8">
+        <v>7</v>
+      </c>
+      <c r="P12" s="8">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="8">
         <v>10</v>
       </c>
-      <c r="R12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="15">
+      <c r="R12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="8">
         <v>8</v>
       </c>
       <c r="T12" s="8"/>
@@ -1250,23 +1253,57 @@
       <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="C13" s="15">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="15">
+        <v>8</v>
+      </c>
+      <c r="G13" s="18">
+        <v>6</v>
+      </c>
+      <c r="H13" s="15">
+        <v>8</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="19">
+        <v>10</v>
+      </c>
+      <c r="K13" s="15">
+        <v>8</v>
+      </c>
+      <c r="L13" s="15">
+        <v>8</v>
+      </c>
+      <c r="M13" s="15">
+        <v>8</v>
+      </c>
+      <c r="N13" s="15">
+        <v>4</v>
+      </c>
+      <c r="O13" s="15">
+        <v>6</v>
+      </c>
+      <c r="P13" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>8</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="15">
+        <v>9</v>
+      </c>
       <c r="T13" s="8"/>
       <c r="U13" s="13"/>
       <c r="V13" s="2"/>
@@ -1281,7 +1318,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1308,7 +1345,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1335,7 +1372,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1362,7 +1399,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1389,7 +1426,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1416,7 +1453,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1436,76 +1473,76 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="21">
         <f>SUM(C4:C19)</f>
-        <v>78</v>
-      </c>
-      <c r="D20" s="16">
+        <v>85</v>
+      </c>
+      <c r="D20" s="21">
         <f t="shared" ref="D20:S20" si="0">SUM(D4:D19)</f>
-        <v>66</v>
-      </c>
-      <c r="E20" s="16">
+        <v>74</v>
+      </c>
+      <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="21">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G20" s="23">
+        <v>68</v>
+      </c>
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="H20" s="16">
+        <v>90</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="I20" s="16">
+        <v>67</v>
+      </c>
+      <c r="I20" s="21">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="22">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="K20" s="16">
+        <v>78</v>
+      </c>
+      <c r="K20" s="21">
         <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="L20" s="16">
+        <v>76</v>
+      </c>
+      <c r="L20" s="21">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="M20" s="16">
+        <v>56</v>
+      </c>
+      <c r="M20" s="21">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="N20" s="16">
+        <v>66</v>
+      </c>
+      <c r="N20" s="21">
         <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="O20" s="16">
+        <v>69</v>
+      </c>
+      <c r="O20" s="21">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="P20" s="16">
+        <v>73</v>
+      </c>
+      <c r="P20" s="21">
         <f t="shared" ref="P20" si="1">SUM(P4:P19)</f>
-        <v>71</v>
-      </c>
-      <c r="Q20" s="16">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="21">
         <f>SUM(Q4:Q19)</f>
-        <v>71</v>
-      </c>
-      <c r="R20" s="16">
+        <v>79</v>
+      </c>
+      <c r="R20" s="21">
         <f>SUM(R4:R19)</f>
         <v>35</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="21">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="T20" s="9"/>
       <c r="U20" s="13"/>
@@ -1514,24 +1551,24 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
       <c r="T21" s="9"/>
       <c r="U21" s="13"/>
       <c r="V21" s="2"/>
@@ -1639,19 +1676,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
@@ -1668,13 +1699,19 @@
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="J20:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
